--- a/org.CRMFrameWork/TestData/LoginData.xlsx
+++ b/org.CRMFrameWork/TestData/LoginData.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\workspace1\Cucumber_29_Aug_2019\org.CRMFrameWork\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\CRMApplication\org.CRMFrameWork\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571104AD-4B3F-47CE-B2EF-119CE4925BC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C517C171-0C62-4050-8DB6-5DA5F1172BFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>mohanselenium9@gmail.com</t>
   </si>
@@ -62,6 +64,24 @@
   </si>
   <si>
     <t>terapalli@gmail.com</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mohan34389</t>
   </si>
 </sst>
 </file>
@@ -85,12 +105,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,9 +132,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -393,7 +420,69 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{B21582BE-CF23-416B-A6D1-354D426D9E0F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92901FA-4365-4A0F-9FA8-7121394E4947}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,15 +492,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -442,15 +531,114 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{B21582BE-CF23-416B-A6D1-354D426D9E0F}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D71B871F-CFC2-4A84-89E3-ECCE86BF3F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F6098C-04BB-4D05-9677-9D3E189F17F5}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1820B537-DFC9-448D-BD88-101FA039AF03}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4EF24E7F-C54E-4277-AFE7-496EB1C2FB3A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{386EC83B-29B6-45A8-849B-0CDD5BB21B5E}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{115424BC-2050-4528-884F-67A46BD528D1}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{E6F7FE81-2AFC-49E4-BF55-DD07F3238A60}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73513AED-B6C8-465C-9DC1-5CAF8A81181A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
